--- a/process.xlsx
+++ b/process.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t xml:space="preserve">Tuần </t>
   </si>
@@ -191,11 +191,13 @@
     <t>Bảo 30%, Nam 70%</t>
   </si>
   <si>
-    <t>còn form KH thảo luận
-cần thảo luận với bạn</t>
-  </si>
-  <si>
     <t>Đang thực hiện</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chưa làm kịp </t>
+  </si>
+  <si>
+    <t>hoàn thành</t>
   </si>
 </sst>
 </file>
@@ -571,6 +573,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -603,9 +608,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -960,7 +962,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -975,14 +977,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -995,37 +997,37 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="36" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="37"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
+      <c r="A5" s="28">
         <v>1</v>
       </c>
       <c r="B5" s="25" t="s">
@@ -1045,7 +1047,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="18" t="s">
         <v>10</v>
       </c>
@@ -1063,7 +1065,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="18" t="s">
         <v>11</v>
       </c>
@@ -1081,7 +1083,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="19" t="s">
         <v>12</v>
       </c>
@@ -1099,7 +1101,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+      <c r="A9" s="29">
         <v>2</v>
       </c>
       <c r="B9" s="20" t="s">
@@ -1119,7 +1121,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="18" t="s">
         <v>14</v>
       </c>
@@ -1137,7 +1139,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
@@ -1147,7 +1149,7 @@
       <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="18" t="s">
         <v>16</v>
       </c>
@@ -1163,7 +1165,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="18" t="s">
         <v>17</v>
       </c>
@@ -1174,10 +1176,12 @@
       <c r="E13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="12" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="19" t="s">
         <v>18</v>
       </c>
@@ -1188,12 +1192,12 @@
         <v>32</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="38" t="s">
-        <v>51</v>
+      <c r="F14" s="27" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
+      <c r="A15" s="29">
         <v>3</v>
       </c>
       <c r="B15" s="20" t="s">
@@ -1209,7 +1213,7 @@
       <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="18" t="s">
         <v>20</v>
       </c>
@@ -1221,11 +1225,11 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="19" t="s">
         <v>21</v>
       </c>
@@ -1239,7 +1243,7 @@
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
+      <c r="A18" s="29">
         <v>4</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -1251,7 +1255,7 @@
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="18" t="s">
         <v>23</v>
       </c>
@@ -1265,7 +1269,7 @@
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="18" t="s">
         <v>36</v>
       </c>
@@ -1279,7 +1283,7 @@
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="18" t="s">
         <v>24</v>
       </c>
@@ -1293,7 +1297,7 @@
       <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
@@ -1304,7 +1308,9 @@
         <v>32</v>
       </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="13"/>
+      <c r="F22" s="13" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23">

--- a/process.xlsx
+++ b/process.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
   <si>
     <t xml:space="preserve">Tuần </t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>Bảo 30%, Nam 70%</t>
-  </si>
-  <si>
-    <t>Đang thực hiện</t>
   </si>
   <si>
     <t xml:space="preserve">Chưa làm kịp </t>
@@ -962,7 +959,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1177,7 +1174,7 @@
         <v>32</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1193,7 +1190,7 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
@@ -1225,7 +1222,7 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1309,7 +1306,7 @@
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">

--- a/process.xlsx
+++ b/process.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t xml:space="preserve">Tuần </t>
   </si>
@@ -194,14 +194,38 @@
     <t xml:space="preserve">Chưa làm kịp </t>
   </si>
   <si>
-    <t>hoàn thành</t>
+    <t>Hoàn Thành đúng tiến độ</t>
+  </si>
+  <si>
+    <t>Hoàn thành 21/20/2018</t>
+  </si>
+  <si>
+    <t>Hoàn thành ngày 22/10/2018</t>
+  </si>
+  <si>
+    <t>Chưa làm kịp tìm đường,vị trí, Nam: làm form Giao Hàng</t>
+  </si>
+  <si>
+    <t>Nam:Làm thêm frmNhapHang,Tìm Kiếm  18/10/2018 - 25/10/2018</t>
+  </si>
+  <si>
+    <t>Hoàn Thành</t>
+  </si>
+  <si>
+    <t>Nam:hoàn thành HSX ngày 22/10/2018</t>
+  </si>
+  <si>
+    <t>Đã Tham Khảo Ý Kiến</t>
+  </si>
+  <si>
+    <t>Hoàn thành</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,7 +690,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -698,27 +722,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -750,24 +756,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -943,37 +931,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="73" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="71.85546875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="27.75" customHeight="1">
       <c r="A1" s="32" t="s">
         <v>7</v>
       </c>
@@ -983,7 +971,7 @@
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
     </row>
-    <row r="2" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="50.25" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>48</v>
@@ -993,7 +981,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.5" customHeight="1" thickTop="1">
       <c r="A3" s="34" t="s">
         <v>0</v>
       </c>
@@ -1011,7 +999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="23.25">
       <c r="A4" s="35"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -1023,7 +1011,7 @@
       </c>
       <c r="F4" s="38"/>
     </row>
-    <row r="5" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="26.25" customHeight="1">
       <c r="A5" s="28">
         <v>1</v>
       </c>
@@ -1043,7 +1031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="28"/>
       <c r="B6" s="18" t="s">
         <v>10</v>
@@ -1061,7 +1049,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="28"/>
       <c r="B7" s="18" t="s">
         <v>11</v>
@@ -1079,7 +1067,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="17.25" thickBot="1">
       <c r="A8" s="28"/>
       <c r="B8" s="19" t="s">
         <v>12</v>
@@ -1097,7 +1085,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="17.25" thickTop="1">
       <c r="A9" s="29">
         <v>2</v>
       </c>
@@ -1117,7 +1105,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="30"/>
       <c r="B10" s="18" t="s">
         <v>14</v>
@@ -1135,7 +1123,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="22.5" customHeight="1">
       <c r="A11" s="30"/>
       <c r="B11" s="9" t="s">
         <v>15</v>
@@ -1145,7 +1133,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="30"/>
       <c r="B12" s="18" t="s">
         <v>16</v>
@@ -1161,7 +1149,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="30"/>
       <c r="B13" s="18" t="s">
         <v>17</v>
@@ -1174,10 +1162,10 @@
         <v>32</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="38.25" customHeight="1" thickBot="1">
       <c r="A14" s="31"/>
       <c r="B14" s="19" t="s">
         <v>18</v>
@@ -1190,10 +1178,10 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17.25" thickTop="1">
       <c r="A15" s="29">
         <v>3</v>
       </c>
@@ -1207,9 +1195,11 @@
       <c r="E15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="30"/>
       <c r="B16" s="18" t="s">
         <v>20</v>
@@ -1222,10 +1212,10 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17.25" thickBot="1">
       <c r="A17" s="31"/>
       <c r="B17" s="19" t="s">
         <v>21</v>
@@ -1237,9 +1227,11 @@
       <c r="E17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18" thickTop="1">
       <c r="A18" s="29">
         <v>4</v>
       </c>
@@ -1251,7 +1243,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="14"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="30"/>
       <c r="B19" s="18" t="s">
         <v>23</v>
@@ -1263,9 +1255,11 @@
       <c r="E19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="30"/>
       <c r="B20" s="18" t="s">
         <v>36</v>
@@ -1277,9 +1271,11 @@
       <c r="E20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="30"/>
       <c r="B21" s="18" t="s">
         <v>24</v>
@@ -1291,9 +1287,11 @@
         <v>32</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17.25" thickBot="1">
       <c r="A22" s="31"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
@@ -1306,10 +1304,10 @@
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="24" customHeight="1" thickTop="1">
       <c r="A23" s="23">
         <v>5</v>
       </c>
@@ -1325,9 +1323,11 @@
       <c r="E23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="24" customHeight="1">
       <c r="A24" s="23">
         <v>6</v>
       </c>
@@ -1343,9 +1343,11 @@
       <c r="E24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="27" customHeight="1">
       <c r="A25" s="23">
         <v>7</v>
       </c>
@@ -1361,9 +1363,11 @@
       <c r="E25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="24" customHeight="1" thickBot="1">
       <c r="A26" s="24">
         <v>8</v>
       </c>
@@ -1377,9 +1381,11 @@
       <c r="E26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="F26" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A5:A8"/>
@@ -1399,24 +1405,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
